--- a/PLANING/Timeplan.xlsx
+++ b/PLANING/Timeplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Lehrlinge\Gruppe P\Keller_Denis\LAP-Vorbereitung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Lehrlinge\Gruppe P\Keller_Denis\LAP-Vorbereitung\git repo\git\PLANING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0E3C19-C4B2-428C-99BD-AB762B8CCEC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D092C3A4-6EE9-4C2F-91DA-D6707BD74F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5B79738F-E749-4B2D-96CB-279BF0C2289A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="9150" xr2:uid="{5B79738F-E749-4B2D-96CB-279BF0C2289A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="37">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -318,14 +318,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="3" builtinId="26"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C76EDBE-B078-40E0-8986-93E604F2F944}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,48 +658,48 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8">
@@ -802,8 +802,8 @@
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="F4" s="10"/>
       <c r="K4" s="10"/>
       <c r="P4" s="10"/>
@@ -815,8 +815,8 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="F5" s="10"/>
       <c r="K5" s="10"/>
       <c r="P5" s="10"/>
@@ -828,7 +828,7 @@
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="F6" s="10"/>
       <c r="K6" s="10"/>
       <c r="P6" s="10"/>
@@ -840,7 +840,7 @@
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="13"/>
       <c r="F7" s="10"/>
       <c r="K7" s="10"/>
       <c r="P7" s="10"/>
@@ -857,7 +857,7 @@
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="13"/>
       <c r="F9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
@@ -874,7 +874,7 @@
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -894,8 +894,8 @@
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
       <c r="I11" s="9"/>
@@ -1001,7 +1001,7 @@
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="13"/>
       <c r="F18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="11"/>
@@ -1018,8 +1018,8 @@
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="11"/>
@@ -1036,10 +1036,10 @@
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1113,7 +1113,7 @@
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="13"/>
       <c r="F25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="11"/>
@@ -1232,7 +1232,7 @@
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="13"/>
       <c r="F33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="11"/>
@@ -1339,22 +1339,22 @@
       <c r="AE39" s="12"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="15"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/PLANING/Timeplan.xlsx
+++ b/PLANING/Timeplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Lehrlinge\Gruppe P\Keller_Denis\LAP-Vorbereitung\git repo\git\PLANING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D092C3A4-6EE9-4C2F-91DA-D6707BD74F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3CA244-8E3F-463F-A15D-F7B192ED12AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="9150" xr2:uid="{5B79738F-E749-4B2D-96CB-279BF0C2289A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26085" windowHeight="9150" xr2:uid="{5B79738F-E749-4B2D-96CB-279BF0C2289A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C76EDBE-B078-40E0-8986-93E604F2F944}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="13"/>
       <c r="K10" s="10"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -894,8 +894,8 @@
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
       <c r="I11" s="9"/>
@@ -1040,7 +1040,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="10"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>

--- a/PLANING/Timeplan.xlsx
+++ b/PLANING/Timeplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viuser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LAP\LAP_Vorbereitung_IT-LAB_Schuhgeschaeft\PLANING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6445E4-B9DF-4857-B784-2B5948D2C333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD129AB-6F32-416D-B278-44A7E201CBAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="9480" xr2:uid="{5B79738F-E749-4B2D-96CB-279BF0C2289A}"/>
   </bookViews>
@@ -314,10 +314,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="3" builtinId="26"/>
@@ -638,7 +638,7 @@
   <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="AC15" activeCellId="1" sqref="AB15 AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,48 +650,48 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8">
@@ -973,9 +973,9 @@
       <c r="P15" s="10"/>
       <c r="U15" s="10"/>
       <c r="Z15" s="10"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="10"/>
     </row>
@@ -1251,11 +1251,11 @@
       <c r="F28" s="10"/>
       <c r="K28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="R28" s="19"/>
+      <c r="R28" s="18"/>
       <c r="U28" s="10"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-      <c r="Y28" s="9"/>
+      <c r="Y28" s="13"/>
       <c r="Z28" s="10"/>
       <c r="AD28" s="11"/>
       <c r="AE28" s="10"/>
@@ -1269,7 +1269,7 @@
       <c r="P29" s="10"/>
       <c r="U29" s="10"/>
       <c r="Z29" s="10"/>
-      <c r="AC29" s="9"/>
+      <c r="AC29" s="13"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="10"/>
     </row>
@@ -1404,8 +1404,8 @@
       <c r="U35" s="10"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
       <c r="Z35" s="10"/>
       <c r="AA35" s="11"/>
       <c r="AD35" s="11"/>
@@ -1421,8 +1421,8 @@
       <c r="U36" s="10"/>
       <c r="Z36" s="10"/>
       <c r="AA36" s="11"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
       <c r="AD36" s="11"/>
       <c r="AE36" s="12"/>
     </row>
